--- a/Data/DB2019_JUNO.xlsx
+++ b/Data/DB2019_JUNO.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\montu\Documents\GitHub\pyreactors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\montu\Documents\GitHub\pyreactors\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063502CD-1A4A-453A-9D73-0C55467C02A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9FC6C6-F208-4D59-91DB-D5F5618EED5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="21600" windowHeight="12630" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="website" sheetId="10" r:id="rId1"/>
     <sheet name="candu" sheetId="11" r:id="rId2"/>
     <sheet name="JUNO" sheetId="12" r:id="rId3"/>
     <sheet name="JUNO_all" sheetId="15" r:id="rId4"/>
-    <sheet name="JUNO_future_all" sheetId="16" r:id="rId5"/>
-    <sheet name="JUNO_future" sheetId="13" r:id="rId6"/>
+    <sheet name="JUNO_future" sheetId="13" r:id="rId5"/>
+    <sheet name="JUNO_future_all" sheetId="16" r:id="rId6"/>
     <sheet name="Single" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">candu!$A$1:$S$501</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31914,8 +31914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5435435A-2138-48DE-B3A2-14C424A82397}">
   <dimension ref="A1:S501"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -61494,8 +61494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20D595F-2658-42C1-8BB1-FF5D5A52D80E}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -63141,6 +63141,1824 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF37E60F-77C3-472F-AF16-047F598CCABC}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>21.917999999999999</v>
+      </c>
+      <c r="F2">
+        <v>112.982</v>
+      </c>
+      <c r="G2">
+        <v>4590</v>
+      </c>
+      <c r="H2">
+        <v>84.54</v>
+      </c>
+      <c r="I2">
+        <v>2.7</v>
+      </c>
+      <c r="J2">
+        <v>91.63</v>
+      </c>
+      <c r="K2">
+        <v>94.94</v>
+      </c>
+      <c r="L2">
+        <v>92.14</v>
+      </c>
+      <c r="M2">
+        <v>90.59</v>
+      </c>
+      <c r="N2">
+        <v>97.36</v>
+      </c>
+      <c r="O2">
+        <v>94.75</v>
+      </c>
+      <c r="P2">
+        <v>82.63</v>
+      </c>
+      <c r="Q2">
+        <v>69.5</v>
+      </c>
+      <c r="R2">
+        <v>89.25</v>
+      </c>
+      <c r="S2">
+        <v>89.55</v>
+      </c>
+      <c r="T2">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>21.917999999999999</v>
+      </c>
+      <c r="F3">
+        <v>112.982</v>
+      </c>
+      <c r="G3">
+        <v>4590</v>
+      </c>
+      <c r="H3">
+        <v>84.54</v>
+      </c>
+      <c r="I3">
+        <v>2.7</v>
+      </c>
+      <c r="J3">
+        <v>91.63</v>
+      </c>
+      <c r="K3">
+        <v>94.94</v>
+      </c>
+      <c r="L3">
+        <v>92.14</v>
+      </c>
+      <c r="M3">
+        <v>90.59</v>
+      </c>
+      <c r="N3">
+        <v>97.36</v>
+      </c>
+      <c r="O3">
+        <v>94.75</v>
+      </c>
+      <c r="P3">
+        <v>82.63</v>
+      </c>
+      <c r="Q3">
+        <v>69.5</v>
+      </c>
+      <c r="R3">
+        <v>89.25</v>
+      </c>
+      <c r="S3">
+        <v>89.55</v>
+      </c>
+      <c r="T3">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>21.708071</v>
+      </c>
+      <c r="F4">
+        <v>112.2611</v>
+      </c>
+      <c r="G4">
+        <v>2905</v>
+      </c>
+      <c r="H4">
+        <v>102.73</v>
+      </c>
+      <c r="I4">
+        <v>103.39</v>
+      </c>
+      <c r="J4">
+        <v>103.38</v>
+      </c>
+      <c r="K4">
+        <v>103.18</v>
+      </c>
+      <c r="L4">
+        <v>102.83</v>
+      </c>
+      <c r="M4">
+        <v>102.18</v>
+      </c>
+      <c r="N4">
+        <v>101.84</v>
+      </c>
+      <c r="O4">
+        <v>102.13</v>
+      </c>
+      <c r="P4">
+        <v>49.62</v>
+      </c>
+      <c r="Q4">
+        <v>22.01</v>
+      </c>
+      <c r="R4">
+        <v>103.69</v>
+      </c>
+      <c r="S4">
+        <v>98.32</v>
+      </c>
+      <c r="T4">
+        <v>91.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>21.708071</v>
+      </c>
+      <c r="F5">
+        <v>112.2611</v>
+      </c>
+      <c r="G5">
+        <v>2905</v>
+      </c>
+      <c r="H5">
+        <v>102.71</v>
+      </c>
+      <c r="I5">
+        <v>7.27</v>
+      </c>
+      <c r="J5">
+        <v>63.53</v>
+      </c>
+      <c r="K5">
+        <v>85.38</v>
+      </c>
+      <c r="L5">
+        <v>95.11</v>
+      </c>
+      <c r="M5">
+        <v>99.67</v>
+      </c>
+      <c r="N5">
+        <v>100.94</v>
+      </c>
+      <c r="O5">
+        <v>97.86</v>
+      </c>
+      <c r="P5">
+        <v>90.45</v>
+      </c>
+      <c r="Q5">
+        <v>90.98</v>
+      </c>
+      <c r="R5">
+        <v>93.3</v>
+      </c>
+      <c r="S5">
+        <v>90.52</v>
+      </c>
+      <c r="T5">
+        <v>85.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>21.708071</v>
+      </c>
+      <c r="F6">
+        <v>112.2611</v>
+      </c>
+      <c r="G6">
+        <v>2905</v>
+      </c>
+      <c r="H6">
+        <v>99.31</v>
+      </c>
+      <c r="I6">
+        <v>86.18</v>
+      </c>
+      <c r="J6">
+        <v>99.34</v>
+      </c>
+      <c r="K6">
+        <v>97.72</v>
+      </c>
+      <c r="L6">
+        <v>94.58</v>
+      </c>
+      <c r="M6">
+        <v>99.46</v>
+      </c>
+      <c r="N6">
+        <v>101.17</v>
+      </c>
+      <c r="O6">
+        <v>97.33</v>
+      </c>
+      <c r="P6">
+        <v>96.66</v>
+      </c>
+      <c r="Q6">
+        <v>101.78</v>
+      </c>
+      <c r="R6">
+        <v>102.95</v>
+      </c>
+      <c r="S6">
+        <v>103.49</v>
+      </c>
+      <c r="T6">
+        <v>98.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>21.708071</v>
+      </c>
+      <c r="F7">
+        <v>112.2611</v>
+      </c>
+      <c r="G7">
+        <v>2905</v>
+      </c>
+      <c r="H7">
+        <v>93.59</v>
+      </c>
+      <c r="I7">
+        <v>47.45</v>
+      </c>
+      <c r="J7">
+        <v>95.11</v>
+      </c>
+      <c r="K7">
+        <v>85.27</v>
+      </c>
+      <c r="L7">
+        <v>39.44</v>
+      </c>
+      <c r="M7">
+        <v>101.85</v>
+      </c>
+      <c r="N7">
+        <v>101.77</v>
+      </c>
+      <c r="O7">
+        <v>101.77</v>
+      </c>
+      <c r="P7">
+        <v>92.04</v>
+      </c>
+      <c r="Q7">
+        <v>14.6</v>
+      </c>
+      <c r="R7">
+        <v>83.16</v>
+      </c>
+      <c r="S7">
+        <v>89.78</v>
+      </c>
+      <c r="T7">
+        <v>78.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>21.708071</v>
+      </c>
+      <c r="F8">
+        <v>112.2611</v>
+      </c>
+      <c r="G8">
+        <v>2905</v>
+      </c>
+      <c r="H8">
+        <v>96.13</v>
+      </c>
+      <c r="I8">
+        <v>46.18</v>
+      </c>
+      <c r="J8">
+        <v>102.43</v>
+      </c>
+      <c r="K8">
+        <v>101.92</v>
+      </c>
+      <c r="L8">
+        <v>101.33</v>
+      </c>
+      <c r="M8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O8">
+        <v>96.3</v>
+      </c>
+      <c r="P8">
+        <v>94.77</v>
+      </c>
+      <c r="Q8">
+        <v>90.88</v>
+      </c>
+      <c r="R8">
+        <v>93.31</v>
+      </c>
+      <c r="S8">
+        <v>90.33</v>
+      </c>
+      <c r="T8">
+        <v>76.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>21.708071</v>
+      </c>
+      <c r="F9">
+        <v>112.2611</v>
+      </c>
+      <c r="G9">
+        <v>2905</v>
+      </c>
+      <c r="H9">
+        <v>96.13</v>
+      </c>
+      <c r="I9">
+        <v>46.18</v>
+      </c>
+      <c r="J9">
+        <v>102.43</v>
+      </c>
+      <c r="K9">
+        <v>101.92</v>
+      </c>
+      <c r="L9">
+        <v>101.33</v>
+      </c>
+      <c r="M9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O9">
+        <v>101.92</v>
+      </c>
+      <c r="P9">
+        <v>91.99</v>
+      </c>
+      <c r="Q9">
+        <v>70.23</v>
+      </c>
+      <c r="R9">
+        <v>97.73</v>
+      </c>
+      <c r="S9">
+        <v>102.39</v>
+      </c>
+      <c r="T9">
+        <v>92.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>22.597200000000001</v>
+      </c>
+      <c r="F10">
+        <v>114.544</v>
+      </c>
+      <c r="G10">
+        <v>2905</v>
+      </c>
+      <c r="H10">
+        <v>102.06</v>
+      </c>
+      <c r="I10">
+        <v>100.03</v>
+      </c>
+      <c r="J10">
+        <v>102.08</v>
+      </c>
+      <c r="K10">
+        <v>101.06</v>
+      </c>
+      <c r="L10">
+        <v>101.07</v>
+      </c>
+      <c r="M10">
+        <v>100.93</v>
+      </c>
+      <c r="N10">
+        <v>100.76</v>
+      </c>
+      <c r="O10">
+        <v>100.75</v>
+      </c>
+      <c r="P10">
+        <v>100.27</v>
+      </c>
+      <c r="Q10">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="R10">
+        <v>78.62</v>
+      </c>
+      <c r="S10">
+        <v>101.97</v>
+      </c>
+      <c r="T10">
+        <v>93.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>22.597200000000001</v>
+      </c>
+      <c r="F11">
+        <v>114.544</v>
+      </c>
+      <c r="G11">
+        <v>2905</v>
+      </c>
+      <c r="H11">
+        <v>101.97</v>
+      </c>
+      <c r="I11">
+        <v>100.1</v>
+      </c>
+      <c r="J11">
+        <v>101.94</v>
+      </c>
+      <c r="K11">
+        <v>20.37</v>
+      </c>
+      <c r="L11">
+        <v>88.63</v>
+      </c>
+      <c r="M11">
+        <v>100.15</v>
+      </c>
+      <c r="N11">
+        <v>100.6</v>
+      </c>
+      <c r="O11">
+        <v>100.64</v>
+      </c>
+      <c r="P11">
+        <v>99.98</v>
+      </c>
+      <c r="Q11">
+        <v>100.07</v>
+      </c>
+      <c r="R11">
+        <v>100.51</v>
+      </c>
+      <c r="S11">
+        <v>102</v>
+      </c>
+      <c r="T11">
+        <v>93.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>22.605799999999999</v>
+      </c>
+      <c r="F12">
+        <v>114.55</v>
+      </c>
+      <c r="G12">
+        <v>2905</v>
+      </c>
+      <c r="H12">
+        <v>98.2</v>
+      </c>
+      <c r="I12">
+        <v>82.5</v>
+      </c>
+      <c r="J12">
+        <v>92.44</v>
+      </c>
+      <c r="K12">
+        <v>94.9</v>
+      </c>
+      <c r="L12">
+        <v>83.04</v>
+      </c>
+      <c r="M12">
+        <v>98.21</v>
+      </c>
+      <c r="N12">
+        <v>98.1</v>
+      </c>
+      <c r="O12">
+        <v>95</v>
+      </c>
+      <c r="P12">
+        <v>84.28</v>
+      </c>
+      <c r="Q12">
+        <v>55.91</v>
+      </c>
+      <c r="R12">
+        <v>100.37</v>
+      </c>
+      <c r="S12">
+        <v>100.95</v>
+      </c>
+      <c r="T12">
+        <v>90.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>22.6053</v>
+      </c>
+      <c r="F13">
+        <v>114.55</v>
+      </c>
+      <c r="G13">
+        <v>2905</v>
+      </c>
+      <c r="H13">
+        <v>95.13</v>
+      </c>
+      <c r="I13">
+        <v>48.69</v>
+      </c>
+      <c r="J13">
+        <v>98.6</v>
+      </c>
+      <c r="K13">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>92.48</v>
+      </c>
+      <c r="N13">
+        <v>99.29</v>
+      </c>
+      <c r="O13">
+        <v>93.3</v>
+      </c>
+      <c r="P13">
+        <v>92.31</v>
+      </c>
+      <c r="Q13">
+        <v>88.1</v>
+      </c>
+      <c r="R13">
+        <v>99.3</v>
+      </c>
+      <c r="S13">
+        <v>100.02</v>
+      </c>
+      <c r="T13">
+        <v>82.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>22.608899999999998</v>
+      </c>
+      <c r="F14">
+        <v>114.55200000000001</v>
+      </c>
+      <c r="G14">
+        <v>2905</v>
+      </c>
+      <c r="H14">
+        <v>98.97</v>
+      </c>
+      <c r="I14">
+        <v>81.34</v>
+      </c>
+      <c r="J14">
+        <v>89.47</v>
+      </c>
+      <c r="K14">
+        <v>95.84</v>
+      </c>
+      <c r="L14">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="M14">
+        <v>98.2</v>
+      </c>
+      <c r="N14">
+        <v>100.62</v>
+      </c>
+      <c r="O14">
+        <v>95.09</v>
+      </c>
+      <c r="P14">
+        <v>94.34</v>
+      </c>
+      <c r="Q14">
+        <v>94.06</v>
+      </c>
+      <c r="R14">
+        <v>101.3</v>
+      </c>
+      <c r="S14">
+        <v>102.22</v>
+      </c>
+      <c r="T14">
+        <v>94.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>22.608899999999998</v>
+      </c>
+      <c r="F15">
+        <v>114.55200000000001</v>
+      </c>
+      <c r="G15">
+        <v>2905</v>
+      </c>
+      <c r="H15">
+        <v>102.42</v>
+      </c>
+      <c r="I15">
+        <v>11.17</v>
+      </c>
+      <c r="J15">
+        <v>57</v>
+      </c>
+      <c r="K15">
+        <v>94.61</v>
+      </c>
+      <c r="L15">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="M15">
+        <v>97.95</v>
+      </c>
+      <c r="N15">
+        <v>98.53</v>
+      </c>
+      <c r="O15">
+        <v>92.73</v>
+      </c>
+      <c r="P15">
+        <v>78.45</v>
+      </c>
+      <c r="Q15">
+        <v>66.3</v>
+      </c>
+      <c r="R15">
+        <v>100.46</v>
+      </c>
+      <c r="S15">
+        <v>87.97</v>
+      </c>
+      <c r="T15">
+        <v>81.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>21.668610999999999</v>
+      </c>
+      <c r="F16">
+        <v>108.560278</v>
+      </c>
+      <c r="G16">
+        <v>2905</v>
+      </c>
+      <c r="H16">
+        <v>97.86</v>
+      </c>
+      <c r="I16">
+        <v>82.28</v>
+      </c>
+      <c r="J16">
+        <v>100.4</v>
+      </c>
+      <c r="K16">
+        <v>96.03</v>
+      </c>
+      <c r="L16">
+        <v>95.95</v>
+      </c>
+      <c r="M16">
+        <v>100.06</v>
+      </c>
+      <c r="N16">
+        <v>96.8</v>
+      </c>
+      <c r="O16">
+        <v>97.8</v>
+      </c>
+      <c r="P16">
+        <v>100.56</v>
+      </c>
+      <c r="Q16">
+        <v>99.5</v>
+      </c>
+      <c r="R16">
+        <v>97.75</v>
+      </c>
+      <c r="S16">
+        <v>103.58</v>
+      </c>
+      <c r="T16">
+        <v>97.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>21.668610999999999</v>
+      </c>
+      <c r="F17">
+        <v>108.560278</v>
+      </c>
+      <c r="G17">
+        <v>2905</v>
+      </c>
+      <c r="H17">
+        <v>94.52</v>
+      </c>
+      <c r="I17">
+        <v>24.11</v>
+      </c>
+      <c r="J17">
+        <v>101.94</v>
+      </c>
+      <c r="K17">
+        <v>42.54</v>
+      </c>
+      <c r="L17">
+        <v>63.5</v>
+      </c>
+      <c r="M17">
+        <v>100.17</v>
+      </c>
+      <c r="N17">
+        <v>96.89</v>
+      </c>
+      <c r="O17">
+        <v>98.01</v>
+      </c>
+      <c r="P17">
+        <v>102.06</v>
+      </c>
+      <c r="Q17">
+        <v>100.52</v>
+      </c>
+      <c r="R17">
+        <v>103.85</v>
+      </c>
+      <c r="S17">
+        <v>104.2</v>
+      </c>
+      <c r="T17">
+        <v>86.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>21.668610999999999</v>
+      </c>
+      <c r="F18">
+        <v>108.560278</v>
+      </c>
+      <c r="G18">
+        <v>3150</v>
+      </c>
+      <c r="H18">
+        <v>97.86</v>
+      </c>
+      <c r="I18">
+        <v>82.28</v>
+      </c>
+      <c r="J18">
+        <v>100.4</v>
+      </c>
+      <c r="K18">
+        <v>96.03</v>
+      </c>
+      <c r="L18">
+        <v>95.95</v>
+      </c>
+      <c r="M18">
+        <v>100.06</v>
+      </c>
+      <c r="N18">
+        <v>96.8</v>
+      </c>
+      <c r="O18">
+        <v>97.8</v>
+      </c>
+      <c r="P18">
+        <v>100.56</v>
+      </c>
+      <c r="Q18">
+        <v>99.5</v>
+      </c>
+      <c r="R18">
+        <v>97.75</v>
+      </c>
+      <c r="S18">
+        <v>103.58</v>
+      </c>
+      <c r="T18">
+        <v>97.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>21.668610999999999</v>
+      </c>
+      <c r="F19">
+        <v>108.560278</v>
+      </c>
+      <c r="G19">
+        <v>3150</v>
+      </c>
+      <c r="H19">
+        <v>94.52</v>
+      </c>
+      <c r="I19">
+        <v>24.11</v>
+      </c>
+      <c r="J19">
+        <v>101.94</v>
+      </c>
+      <c r="K19">
+        <v>42.54</v>
+      </c>
+      <c r="L19">
+        <v>63.5</v>
+      </c>
+      <c r="M19">
+        <v>100.17</v>
+      </c>
+      <c r="N19">
+        <v>96.89</v>
+      </c>
+      <c r="O19">
+        <v>98.01</v>
+      </c>
+      <c r="P19">
+        <v>102.06</v>
+      </c>
+      <c r="Q19">
+        <v>100.52</v>
+      </c>
+      <c r="R19">
+        <v>103.85</v>
+      </c>
+      <c r="S19">
+        <v>104.2</v>
+      </c>
+      <c r="T19">
+        <v>86.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>21.668610999999999</v>
+      </c>
+      <c r="F20">
+        <v>108.560278</v>
+      </c>
+      <c r="G20">
+        <v>3150</v>
+      </c>
+      <c r="H20">
+        <v>97.86</v>
+      </c>
+      <c r="I20">
+        <v>82.28</v>
+      </c>
+      <c r="J20">
+        <v>100.4</v>
+      </c>
+      <c r="K20">
+        <v>96.03</v>
+      </c>
+      <c r="L20">
+        <v>95.95</v>
+      </c>
+      <c r="M20">
+        <v>100.06</v>
+      </c>
+      <c r="N20">
+        <v>96.8</v>
+      </c>
+      <c r="O20">
+        <v>97.8</v>
+      </c>
+      <c r="P20">
+        <v>100.56</v>
+      </c>
+      <c r="Q20">
+        <v>99.5</v>
+      </c>
+      <c r="R20">
+        <v>97.75</v>
+      </c>
+      <c r="S20">
+        <v>103.58</v>
+      </c>
+      <c r="T20">
+        <v>97.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>21.668610999999999</v>
+      </c>
+      <c r="F21">
+        <v>108.560278</v>
+      </c>
+      <c r="G21">
+        <v>3150</v>
+      </c>
+      <c r="H21">
+        <v>94.52</v>
+      </c>
+      <c r="I21">
+        <v>24.11</v>
+      </c>
+      <c r="J21">
+        <v>101.94</v>
+      </c>
+      <c r="K21">
+        <v>42.54</v>
+      </c>
+      <c r="L21">
+        <v>63.5</v>
+      </c>
+      <c r="M21">
+        <v>100.17</v>
+      </c>
+      <c r="N21">
+        <v>96.89</v>
+      </c>
+      <c r="O21">
+        <v>98.01</v>
+      </c>
+      <c r="P21">
+        <v>102.06</v>
+      </c>
+      <c r="Q21">
+        <v>100.52</v>
+      </c>
+      <c r="R21">
+        <v>103.85</v>
+      </c>
+      <c r="S21">
+        <v>104.2</v>
+      </c>
+      <c r="T21">
+        <v>86.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>19.460999999999999</v>
+      </c>
+      <c r="F22">
+        <v>108.9</v>
+      </c>
+      <c r="G22">
+        <v>1930</v>
+      </c>
+      <c r="H22">
+        <v>73.61</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="K22">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="L22">
+        <v>90.37</v>
+      </c>
+      <c r="M22">
+        <v>97.82</v>
+      </c>
+      <c r="N22">
+        <v>91.13</v>
+      </c>
+      <c r="O22">
+        <v>97.92</v>
+      </c>
+      <c r="P22">
+        <v>98.66</v>
+      </c>
+      <c r="Q22">
+        <v>98.69</v>
+      </c>
+      <c r="R22">
+        <v>100.45</v>
+      </c>
+      <c r="S22">
+        <v>99.96</v>
+      </c>
+      <c r="T22">
+        <v>82.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>19.460999999999999</v>
+      </c>
+      <c r="F23">
+        <v>108.9</v>
+      </c>
+      <c r="G23">
+        <v>1930</v>
+      </c>
+      <c r="H23">
+        <v>67.61</v>
+      </c>
+      <c r="I23">
+        <v>84.29</v>
+      </c>
+      <c r="J23">
+        <v>84.02</v>
+      </c>
+      <c r="K23">
+        <v>84.39</v>
+      </c>
+      <c r="L23">
+        <v>88.92</v>
+      </c>
+      <c r="M23">
+        <v>96.46</v>
+      </c>
+      <c r="N23">
+        <v>92.73</v>
+      </c>
+      <c r="O23">
+        <v>96.67</v>
+      </c>
+      <c r="P23">
+        <v>95.2</v>
+      </c>
+      <c r="Q23">
+        <v>97.36</v>
+      </c>
+      <c r="R23">
+        <v>99.32</v>
+      </c>
+      <c r="S23">
+        <v>71.42</v>
+      </c>
+      <c r="T23">
+        <v>88.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>22.695436999999998</v>
+      </c>
+      <c r="F24">
+        <v>114.978919</v>
+      </c>
+      <c r="G24">
+        <v>3150</v>
+      </c>
+      <c r="H24">
+        <v>97.86</v>
+      </c>
+      <c r="I24">
+        <v>82.28</v>
+      </c>
+      <c r="J24">
+        <v>100.4</v>
+      </c>
+      <c r="K24">
+        <v>96.03</v>
+      </c>
+      <c r="L24">
+        <v>95.95</v>
+      </c>
+      <c r="M24">
+        <v>100.06</v>
+      </c>
+      <c r="N24">
+        <v>96.8</v>
+      </c>
+      <c r="O24">
+        <v>97.8</v>
+      </c>
+      <c r="P24">
+        <v>100.56</v>
+      </c>
+      <c r="Q24">
+        <v>99.5</v>
+      </c>
+      <c r="R24">
+        <v>97.75</v>
+      </c>
+      <c r="S24">
+        <v>103.58</v>
+      </c>
+      <c r="T24">
+        <v>97.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>22.695436999999998</v>
+      </c>
+      <c r="F25">
+        <v>114.978919</v>
+      </c>
+      <c r="G25">
+        <v>3150</v>
+      </c>
+      <c r="H25">
+        <v>94.52</v>
+      </c>
+      <c r="I25">
+        <v>24.11</v>
+      </c>
+      <c r="J25">
+        <v>101.94</v>
+      </c>
+      <c r="K25">
+        <v>42.54</v>
+      </c>
+      <c r="L25">
+        <v>63.5</v>
+      </c>
+      <c r="M25">
+        <v>100.17</v>
+      </c>
+      <c r="N25">
+        <v>96.89</v>
+      </c>
+      <c r="O25">
+        <v>98.01</v>
+      </c>
+      <c r="P25">
+        <v>102.06</v>
+      </c>
+      <c r="Q25">
+        <v>100.52</v>
+      </c>
+      <c r="R25">
+        <v>103.85</v>
+      </c>
+      <c r="S25">
+        <v>104.2</v>
+      </c>
+      <c r="T25">
+        <v>86.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>22.695436999999998</v>
+      </c>
+      <c r="F26">
+        <v>114.978919</v>
+      </c>
+      <c r="G26">
+        <v>3150</v>
+      </c>
+      <c r="H26">
+        <v>97.86</v>
+      </c>
+      <c r="I26">
+        <v>82.28</v>
+      </c>
+      <c r="J26">
+        <v>100.4</v>
+      </c>
+      <c r="K26">
+        <v>96.03</v>
+      </c>
+      <c r="L26">
+        <v>95.95</v>
+      </c>
+      <c r="M26">
+        <v>100.06</v>
+      </c>
+      <c r="N26">
+        <v>96.8</v>
+      </c>
+      <c r="O26">
+        <v>97.8</v>
+      </c>
+      <c r="P26">
+        <v>100.56</v>
+      </c>
+      <c r="Q26">
+        <v>99.5</v>
+      </c>
+      <c r="R26">
+        <v>97.75</v>
+      </c>
+      <c r="S26">
+        <v>103.58</v>
+      </c>
+      <c r="T26">
+        <v>97.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>22.695436999999998</v>
+      </c>
+      <c r="F27">
+        <v>114.978919</v>
+      </c>
+      <c r="G27">
+        <v>3150</v>
+      </c>
+      <c r="H27">
+        <v>94.52</v>
+      </c>
+      <c r="I27">
+        <v>24.11</v>
+      </c>
+      <c r="J27">
+        <v>101.94</v>
+      </c>
+      <c r="K27">
+        <v>42.54</v>
+      </c>
+      <c r="L27">
+        <v>63.5</v>
+      </c>
+      <c r="M27">
+        <v>100.17</v>
+      </c>
+      <c r="N27">
+        <v>96.89</v>
+      </c>
+      <c r="O27">
+        <v>98.01</v>
+      </c>
+      <c r="P27">
+        <v>102.06</v>
+      </c>
+      <c r="Q27">
+        <v>100.52</v>
+      </c>
+      <c r="R27">
+        <v>103.85</v>
+      </c>
+      <c r="S27">
+        <v>104.2</v>
+      </c>
+      <c r="T27">
+        <v>86.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>22.695436999999998</v>
+      </c>
+      <c r="F28">
+        <v>114.978919</v>
+      </c>
+      <c r="G28">
+        <v>3150</v>
+      </c>
+      <c r="H28">
+        <v>97.86</v>
+      </c>
+      <c r="I28">
+        <v>82.28</v>
+      </c>
+      <c r="J28">
+        <v>100.4</v>
+      </c>
+      <c r="K28">
+        <v>96.03</v>
+      </c>
+      <c r="L28">
+        <v>95.95</v>
+      </c>
+      <c r="M28">
+        <v>100.06</v>
+      </c>
+      <c r="N28">
+        <v>96.8</v>
+      </c>
+      <c r="O28">
+        <v>97.8</v>
+      </c>
+      <c r="P28">
+        <v>100.56</v>
+      </c>
+      <c r="Q28">
+        <v>99.5</v>
+      </c>
+      <c r="R28">
+        <v>97.75</v>
+      </c>
+      <c r="S28">
+        <v>103.58</v>
+      </c>
+      <c r="T28">
+        <v>97.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>22.695436999999998</v>
+      </c>
+      <c r="F29">
+        <v>114.978919</v>
+      </c>
+      <c r="G29">
+        <v>3150</v>
+      </c>
+      <c r="H29">
+        <v>94.52</v>
+      </c>
+      <c r="I29">
+        <v>24.11</v>
+      </c>
+      <c r="J29">
+        <v>101.94</v>
+      </c>
+      <c r="K29">
+        <v>42.54</v>
+      </c>
+      <c r="L29">
+        <v>63.5</v>
+      </c>
+      <c r="M29">
+        <v>100.17</v>
+      </c>
+      <c r="N29">
+        <v>96.89</v>
+      </c>
+      <c r="O29">
+        <v>98.01</v>
+      </c>
+      <c r="P29">
+        <v>102.06</v>
+      </c>
+      <c r="Q29">
+        <v>100.52</v>
+      </c>
+      <c r="R29">
+        <v>103.85</v>
+      </c>
+      <c r="S29">
+        <v>104.2</v>
+      </c>
+      <c r="T29">
+        <v>86.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEAC592-844A-41C0-A0C3-DFEC307CF942}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -63657,1829 +65475,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF37E60F-77C3-472F-AF16-047F598CCABC}">
-  <dimension ref="A1:T29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>21.917999999999999</v>
-      </c>
-      <c r="F2">
-        <v>112.982</v>
-      </c>
-      <c r="G2">
-        <v>4590</v>
-      </c>
-      <c r="H2">
-        <v>84.54</v>
-      </c>
-      <c r="I2">
-        <v>2.7</v>
-      </c>
-      <c r="J2">
-        <v>91.63</v>
-      </c>
-      <c r="K2">
-        <v>94.94</v>
-      </c>
-      <c r="L2">
-        <v>92.14</v>
-      </c>
-      <c r="M2">
-        <v>90.59</v>
-      </c>
-      <c r="N2">
-        <v>97.36</v>
-      </c>
-      <c r="O2">
-        <v>94.75</v>
-      </c>
-      <c r="P2">
-        <v>82.63</v>
-      </c>
-      <c r="Q2">
-        <v>69.5</v>
-      </c>
-      <c r="R2">
-        <v>89.25</v>
-      </c>
-      <c r="S2">
-        <v>89.55</v>
-      </c>
-      <c r="T2">
-        <v>82.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>21.917999999999999</v>
-      </c>
-      <c r="F3">
-        <v>112.982</v>
-      </c>
-      <c r="G3">
-        <v>4590</v>
-      </c>
-      <c r="H3">
-        <v>84.54</v>
-      </c>
-      <c r="I3">
-        <v>2.7</v>
-      </c>
-      <c r="J3">
-        <v>91.63</v>
-      </c>
-      <c r="K3">
-        <v>94.94</v>
-      </c>
-      <c r="L3">
-        <v>92.14</v>
-      </c>
-      <c r="M3">
-        <v>90.59</v>
-      </c>
-      <c r="N3">
-        <v>97.36</v>
-      </c>
-      <c r="O3">
-        <v>94.75</v>
-      </c>
-      <c r="P3">
-        <v>82.63</v>
-      </c>
-      <c r="Q3">
-        <v>69.5</v>
-      </c>
-      <c r="R3">
-        <v>89.25</v>
-      </c>
-      <c r="S3">
-        <v>89.55</v>
-      </c>
-      <c r="T3">
-        <v>82.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>21.708071</v>
-      </c>
-      <c r="F4">
-        <v>112.2611</v>
-      </c>
-      <c r="G4">
-        <v>2905</v>
-      </c>
-      <c r="H4">
-        <v>102.73</v>
-      </c>
-      <c r="I4">
-        <v>103.39</v>
-      </c>
-      <c r="J4">
-        <v>103.38</v>
-      </c>
-      <c r="K4">
-        <v>103.18</v>
-      </c>
-      <c r="L4">
-        <v>102.83</v>
-      </c>
-      <c r="M4">
-        <v>102.18</v>
-      </c>
-      <c r="N4">
-        <v>101.84</v>
-      </c>
-      <c r="O4">
-        <v>102.13</v>
-      </c>
-      <c r="P4">
-        <v>49.62</v>
-      </c>
-      <c r="Q4">
-        <v>22.01</v>
-      </c>
-      <c r="R4">
-        <v>103.69</v>
-      </c>
-      <c r="S4">
-        <v>98.32</v>
-      </c>
-      <c r="T4">
-        <v>91.19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>21.708071</v>
-      </c>
-      <c r="F5">
-        <v>112.2611</v>
-      </c>
-      <c r="G5">
-        <v>2905</v>
-      </c>
-      <c r="H5">
-        <v>102.71</v>
-      </c>
-      <c r="I5">
-        <v>7.27</v>
-      </c>
-      <c r="J5">
-        <v>63.53</v>
-      </c>
-      <c r="K5">
-        <v>85.38</v>
-      </c>
-      <c r="L5">
-        <v>95.11</v>
-      </c>
-      <c r="M5">
-        <v>99.67</v>
-      </c>
-      <c r="N5">
-        <v>100.94</v>
-      </c>
-      <c r="O5">
-        <v>97.86</v>
-      </c>
-      <c r="P5">
-        <v>90.45</v>
-      </c>
-      <c r="Q5">
-        <v>90.98</v>
-      </c>
-      <c r="R5">
-        <v>93.3</v>
-      </c>
-      <c r="S5">
-        <v>90.52</v>
-      </c>
-      <c r="T5">
-        <v>85.37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>21.708071</v>
-      </c>
-      <c r="F6">
-        <v>112.2611</v>
-      </c>
-      <c r="G6">
-        <v>2905</v>
-      </c>
-      <c r="H6">
-        <v>99.31</v>
-      </c>
-      <c r="I6">
-        <v>86.18</v>
-      </c>
-      <c r="J6">
-        <v>99.34</v>
-      </c>
-      <c r="K6">
-        <v>97.72</v>
-      </c>
-      <c r="L6">
-        <v>94.58</v>
-      </c>
-      <c r="M6">
-        <v>99.46</v>
-      </c>
-      <c r="N6">
-        <v>101.17</v>
-      </c>
-      <c r="O6">
-        <v>97.33</v>
-      </c>
-      <c r="P6">
-        <v>96.66</v>
-      </c>
-      <c r="Q6">
-        <v>101.78</v>
-      </c>
-      <c r="R6">
-        <v>102.95</v>
-      </c>
-      <c r="S6">
-        <v>103.49</v>
-      </c>
-      <c r="T6">
-        <v>98.42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>21.708071</v>
-      </c>
-      <c r="F7">
-        <v>112.2611</v>
-      </c>
-      <c r="G7">
-        <v>2905</v>
-      </c>
-      <c r="H7">
-        <v>93.59</v>
-      </c>
-      <c r="I7">
-        <v>47.45</v>
-      </c>
-      <c r="J7">
-        <v>95.11</v>
-      </c>
-      <c r="K7">
-        <v>85.27</v>
-      </c>
-      <c r="L7">
-        <v>39.44</v>
-      </c>
-      <c r="M7">
-        <v>101.85</v>
-      </c>
-      <c r="N7">
-        <v>101.77</v>
-      </c>
-      <c r="O7">
-        <v>101.77</v>
-      </c>
-      <c r="P7">
-        <v>92.04</v>
-      </c>
-      <c r="Q7">
-        <v>14.6</v>
-      </c>
-      <c r="R7">
-        <v>83.16</v>
-      </c>
-      <c r="S7">
-        <v>89.78</v>
-      </c>
-      <c r="T7">
-        <v>78.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>21.708071</v>
-      </c>
-      <c r="F8">
-        <v>112.2611</v>
-      </c>
-      <c r="G8">
-        <v>2905</v>
-      </c>
-      <c r="H8">
-        <v>96.13</v>
-      </c>
-      <c r="I8">
-        <v>46.18</v>
-      </c>
-      <c r="J8">
-        <v>102.43</v>
-      </c>
-      <c r="K8">
-        <v>101.92</v>
-      </c>
-      <c r="L8">
-        <v>101.33</v>
-      </c>
-      <c r="M8">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O8">
-        <v>96.3</v>
-      </c>
-      <c r="P8">
-        <v>94.77</v>
-      </c>
-      <c r="Q8">
-        <v>90.88</v>
-      </c>
-      <c r="R8">
-        <v>93.31</v>
-      </c>
-      <c r="S8">
-        <v>90.33</v>
-      </c>
-      <c r="T8">
-        <v>76.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>21.708071</v>
-      </c>
-      <c r="F9">
-        <v>112.2611</v>
-      </c>
-      <c r="G9">
-        <v>2905</v>
-      </c>
-      <c r="H9">
-        <v>96.13</v>
-      </c>
-      <c r="I9">
-        <v>46.18</v>
-      </c>
-      <c r="J9">
-        <v>102.43</v>
-      </c>
-      <c r="K9">
-        <v>101.92</v>
-      </c>
-      <c r="L9">
-        <v>101.33</v>
-      </c>
-      <c r="M9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O9">
-        <v>101.92</v>
-      </c>
-      <c r="P9">
-        <v>91.99</v>
-      </c>
-      <c r="Q9">
-        <v>70.23</v>
-      </c>
-      <c r="R9">
-        <v>97.73</v>
-      </c>
-      <c r="S9">
-        <v>102.39</v>
-      </c>
-      <c r="T9">
-        <v>92.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>22.597200000000001</v>
-      </c>
-      <c r="F10">
-        <v>114.544</v>
-      </c>
-      <c r="G10">
-        <v>2905</v>
-      </c>
-      <c r="H10">
-        <v>102.06</v>
-      </c>
-      <c r="I10">
-        <v>100.03</v>
-      </c>
-      <c r="J10">
-        <v>102.08</v>
-      </c>
-      <c r="K10">
-        <v>101.06</v>
-      </c>
-      <c r="L10">
-        <v>101.07</v>
-      </c>
-      <c r="M10">
-        <v>100.93</v>
-      </c>
-      <c r="N10">
-        <v>100.76</v>
-      </c>
-      <c r="O10">
-        <v>100.75</v>
-      </c>
-      <c r="P10">
-        <v>100.27</v>
-      </c>
-      <c r="Q10">
-        <v>38.909999999999997</v>
-      </c>
-      <c r="R10">
-        <v>78.62</v>
-      </c>
-      <c r="S10">
-        <v>101.97</v>
-      </c>
-      <c r="T10">
-        <v>93.98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>22.597200000000001</v>
-      </c>
-      <c r="F11">
-        <v>114.544</v>
-      </c>
-      <c r="G11">
-        <v>2905</v>
-      </c>
-      <c r="H11">
-        <v>101.97</v>
-      </c>
-      <c r="I11">
-        <v>100.1</v>
-      </c>
-      <c r="J11">
-        <v>101.94</v>
-      </c>
-      <c r="K11">
-        <v>20.37</v>
-      </c>
-      <c r="L11">
-        <v>88.63</v>
-      </c>
-      <c r="M11">
-        <v>100.15</v>
-      </c>
-      <c r="N11">
-        <v>100.6</v>
-      </c>
-      <c r="O11">
-        <v>100.64</v>
-      </c>
-      <c r="P11">
-        <v>99.98</v>
-      </c>
-      <c r="Q11">
-        <v>100.07</v>
-      </c>
-      <c r="R11">
-        <v>100.51</v>
-      </c>
-      <c r="S11">
-        <v>102</v>
-      </c>
-      <c r="T11">
-        <v>93.16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>22.605799999999999</v>
-      </c>
-      <c r="F12">
-        <v>114.55</v>
-      </c>
-      <c r="G12">
-        <v>2905</v>
-      </c>
-      <c r="H12">
-        <v>98.2</v>
-      </c>
-      <c r="I12">
-        <v>82.5</v>
-      </c>
-      <c r="J12">
-        <v>92.44</v>
-      </c>
-      <c r="K12">
-        <v>94.9</v>
-      </c>
-      <c r="L12">
-        <v>83.04</v>
-      </c>
-      <c r="M12">
-        <v>98.21</v>
-      </c>
-      <c r="N12">
-        <v>98.1</v>
-      </c>
-      <c r="O12">
-        <v>95</v>
-      </c>
-      <c r="P12">
-        <v>84.28</v>
-      </c>
-      <c r="Q12">
-        <v>55.91</v>
-      </c>
-      <c r="R12">
-        <v>100.37</v>
-      </c>
-      <c r="S12">
-        <v>100.95</v>
-      </c>
-      <c r="T12">
-        <v>90.34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>22.6053</v>
-      </c>
-      <c r="F13">
-        <v>114.55</v>
-      </c>
-      <c r="G13">
-        <v>2905</v>
-      </c>
-      <c r="H13">
-        <v>95.13</v>
-      </c>
-      <c r="I13">
-        <v>48.69</v>
-      </c>
-      <c r="J13">
-        <v>98.6</v>
-      </c>
-      <c r="K13">
-        <v>80.290000000000006</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>92.48</v>
-      </c>
-      <c r="N13">
-        <v>99.29</v>
-      </c>
-      <c r="O13">
-        <v>93.3</v>
-      </c>
-      <c r="P13">
-        <v>92.31</v>
-      </c>
-      <c r="Q13">
-        <v>88.1</v>
-      </c>
-      <c r="R13">
-        <v>99.3</v>
-      </c>
-      <c r="S13">
-        <v>100.02</v>
-      </c>
-      <c r="T13">
-        <v>82.47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>22.608899999999998</v>
-      </c>
-      <c r="F14">
-        <v>114.55200000000001</v>
-      </c>
-      <c r="G14">
-        <v>2905</v>
-      </c>
-      <c r="H14">
-        <v>98.97</v>
-      </c>
-      <c r="I14">
-        <v>81.34</v>
-      </c>
-      <c r="J14">
-        <v>89.47</v>
-      </c>
-      <c r="K14">
-        <v>95.84</v>
-      </c>
-      <c r="L14">
-        <v>80.819999999999993</v>
-      </c>
-      <c r="M14">
-        <v>98.2</v>
-      </c>
-      <c r="N14">
-        <v>100.62</v>
-      </c>
-      <c r="O14">
-        <v>95.09</v>
-      </c>
-      <c r="P14">
-        <v>94.34</v>
-      </c>
-      <c r="Q14">
-        <v>94.06</v>
-      </c>
-      <c r="R14">
-        <v>101.3</v>
-      </c>
-      <c r="S14">
-        <v>102.22</v>
-      </c>
-      <c r="T14">
-        <v>94.43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>22.608899999999998</v>
-      </c>
-      <c r="F15">
-        <v>114.55200000000001</v>
-      </c>
-      <c r="G15">
-        <v>2905</v>
-      </c>
-      <c r="H15">
-        <v>102.42</v>
-      </c>
-      <c r="I15">
-        <v>11.17</v>
-      </c>
-      <c r="J15">
-        <v>57</v>
-      </c>
-      <c r="K15">
-        <v>94.61</v>
-      </c>
-      <c r="L15">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="M15">
-        <v>97.95</v>
-      </c>
-      <c r="N15">
-        <v>98.53</v>
-      </c>
-      <c r="O15">
-        <v>92.73</v>
-      </c>
-      <c r="P15">
-        <v>78.45</v>
-      </c>
-      <c r="Q15">
-        <v>66.3</v>
-      </c>
-      <c r="R15">
-        <v>100.46</v>
-      </c>
-      <c r="S15">
-        <v>87.97</v>
-      </c>
-      <c r="T15">
-        <v>81.14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>21.668610999999999</v>
-      </c>
-      <c r="F16">
-        <v>108.560278</v>
-      </c>
-      <c r="G16">
-        <v>2905</v>
-      </c>
-      <c r="H16">
-        <v>97.86</v>
-      </c>
-      <c r="I16">
-        <v>82.28</v>
-      </c>
-      <c r="J16">
-        <v>100.4</v>
-      </c>
-      <c r="K16">
-        <v>96.03</v>
-      </c>
-      <c r="L16">
-        <v>95.95</v>
-      </c>
-      <c r="M16">
-        <v>100.06</v>
-      </c>
-      <c r="N16">
-        <v>96.8</v>
-      </c>
-      <c r="O16">
-        <v>97.8</v>
-      </c>
-      <c r="P16">
-        <v>100.56</v>
-      </c>
-      <c r="Q16">
-        <v>99.5</v>
-      </c>
-      <c r="R16">
-        <v>97.75</v>
-      </c>
-      <c r="S16">
-        <v>103.58</v>
-      </c>
-      <c r="T16">
-        <v>97.49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>21.668610999999999</v>
-      </c>
-      <c r="F17">
-        <v>108.560278</v>
-      </c>
-      <c r="G17">
-        <v>2905</v>
-      </c>
-      <c r="H17">
-        <v>94.52</v>
-      </c>
-      <c r="I17">
-        <v>24.11</v>
-      </c>
-      <c r="J17">
-        <v>101.94</v>
-      </c>
-      <c r="K17">
-        <v>42.54</v>
-      </c>
-      <c r="L17">
-        <v>63.5</v>
-      </c>
-      <c r="M17">
-        <v>100.17</v>
-      </c>
-      <c r="N17">
-        <v>96.89</v>
-      </c>
-      <c r="O17">
-        <v>98.01</v>
-      </c>
-      <c r="P17">
-        <v>102.06</v>
-      </c>
-      <c r="Q17">
-        <v>100.52</v>
-      </c>
-      <c r="R17">
-        <v>103.85</v>
-      </c>
-      <c r="S17">
-        <v>104.2</v>
-      </c>
-      <c r="T17">
-        <v>86.52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>21.668610999999999</v>
-      </c>
-      <c r="F18">
-        <v>108.560278</v>
-      </c>
-      <c r="G18">
-        <v>3150</v>
-      </c>
-      <c r="H18">
-        <v>97.86</v>
-      </c>
-      <c r="I18">
-        <v>82.28</v>
-      </c>
-      <c r="J18">
-        <v>100.4</v>
-      </c>
-      <c r="K18">
-        <v>96.03</v>
-      </c>
-      <c r="L18">
-        <v>95.95</v>
-      </c>
-      <c r="M18">
-        <v>100.06</v>
-      </c>
-      <c r="N18">
-        <v>96.8</v>
-      </c>
-      <c r="O18">
-        <v>97.8</v>
-      </c>
-      <c r="P18">
-        <v>100.56</v>
-      </c>
-      <c r="Q18">
-        <v>99.5</v>
-      </c>
-      <c r="R18">
-        <v>97.75</v>
-      </c>
-      <c r="S18">
-        <v>103.58</v>
-      </c>
-      <c r="T18">
-        <v>97.49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>21.668610999999999</v>
-      </c>
-      <c r="F19">
-        <v>108.560278</v>
-      </c>
-      <c r="G19">
-        <v>3150</v>
-      </c>
-      <c r="H19">
-        <v>94.52</v>
-      </c>
-      <c r="I19">
-        <v>24.11</v>
-      </c>
-      <c r="J19">
-        <v>101.94</v>
-      </c>
-      <c r="K19">
-        <v>42.54</v>
-      </c>
-      <c r="L19">
-        <v>63.5</v>
-      </c>
-      <c r="M19">
-        <v>100.17</v>
-      </c>
-      <c r="N19">
-        <v>96.89</v>
-      </c>
-      <c r="O19">
-        <v>98.01</v>
-      </c>
-      <c r="P19">
-        <v>102.06</v>
-      </c>
-      <c r="Q19">
-        <v>100.52</v>
-      </c>
-      <c r="R19">
-        <v>103.85</v>
-      </c>
-      <c r="S19">
-        <v>104.2</v>
-      </c>
-      <c r="T19">
-        <v>86.52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>21.668610999999999</v>
-      </c>
-      <c r="F20">
-        <v>108.560278</v>
-      </c>
-      <c r="G20">
-        <v>3150</v>
-      </c>
-      <c r="H20">
-        <v>97.86</v>
-      </c>
-      <c r="I20">
-        <v>82.28</v>
-      </c>
-      <c r="J20">
-        <v>100.4</v>
-      </c>
-      <c r="K20">
-        <v>96.03</v>
-      </c>
-      <c r="L20">
-        <v>95.95</v>
-      </c>
-      <c r="M20">
-        <v>100.06</v>
-      </c>
-      <c r="N20">
-        <v>96.8</v>
-      </c>
-      <c r="O20">
-        <v>97.8</v>
-      </c>
-      <c r="P20">
-        <v>100.56</v>
-      </c>
-      <c r="Q20">
-        <v>99.5</v>
-      </c>
-      <c r="R20">
-        <v>97.75</v>
-      </c>
-      <c r="S20">
-        <v>103.58</v>
-      </c>
-      <c r="T20">
-        <v>97.49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>21.668610999999999</v>
-      </c>
-      <c r="F21">
-        <v>108.560278</v>
-      </c>
-      <c r="G21">
-        <v>3150</v>
-      </c>
-      <c r="H21">
-        <v>94.52</v>
-      </c>
-      <c r="I21">
-        <v>24.11</v>
-      </c>
-      <c r="J21">
-        <v>101.94</v>
-      </c>
-      <c r="K21">
-        <v>42.54</v>
-      </c>
-      <c r="L21">
-        <v>63.5</v>
-      </c>
-      <c r="M21">
-        <v>100.17</v>
-      </c>
-      <c r="N21">
-        <v>96.89</v>
-      </c>
-      <c r="O21">
-        <v>98.01</v>
-      </c>
-      <c r="P21">
-        <v>102.06</v>
-      </c>
-      <c r="Q21">
-        <v>100.52</v>
-      </c>
-      <c r="R21">
-        <v>103.85</v>
-      </c>
-      <c r="S21">
-        <v>104.2</v>
-      </c>
-      <c r="T21">
-        <v>86.52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>19.460999999999999</v>
-      </c>
-      <c r="F22">
-        <v>108.9</v>
-      </c>
-      <c r="G22">
-        <v>1930</v>
-      </c>
-      <c r="H22">
-        <v>73.61</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>64.569999999999993</v>
-      </c>
-      <c r="K22">
-        <v>72.069999999999993</v>
-      </c>
-      <c r="L22">
-        <v>90.37</v>
-      </c>
-      <c r="M22">
-        <v>97.82</v>
-      </c>
-      <c r="N22">
-        <v>91.13</v>
-      </c>
-      <c r="O22">
-        <v>97.92</v>
-      </c>
-      <c r="P22">
-        <v>98.66</v>
-      </c>
-      <c r="Q22">
-        <v>98.69</v>
-      </c>
-      <c r="R22">
-        <v>100.45</v>
-      </c>
-      <c r="S22">
-        <v>99.96</v>
-      </c>
-      <c r="T22">
-        <v>82.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>19.460999999999999</v>
-      </c>
-      <c r="F23">
-        <v>108.9</v>
-      </c>
-      <c r="G23">
-        <v>1930</v>
-      </c>
-      <c r="H23">
-        <v>67.61</v>
-      </c>
-      <c r="I23">
-        <v>84.29</v>
-      </c>
-      <c r="J23">
-        <v>84.02</v>
-      </c>
-      <c r="K23">
-        <v>84.39</v>
-      </c>
-      <c r="L23">
-        <v>88.92</v>
-      </c>
-      <c r="M23">
-        <v>96.46</v>
-      </c>
-      <c r="N23">
-        <v>92.73</v>
-      </c>
-      <c r="O23">
-        <v>96.67</v>
-      </c>
-      <c r="P23">
-        <v>95.2</v>
-      </c>
-      <c r="Q23">
-        <v>97.36</v>
-      </c>
-      <c r="R23">
-        <v>99.32</v>
-      </c>
-      <c r="S23">
-        <v>71.42</v>
-      </c>
-      <c r="T23">
-        <v>88.17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>22.695436999999998</v>
-      </c>
-      <c r="F24">
-        <v>114.978919</v>
-      </c>
-      <c r="G24">
-        <v>3150</v>
-      </c>
-      <c r="H24">
-        <v>97.86</v>
-      </c>
-      <c r="I24">
-        <v>82.28</v>
-      </c>
-      <c r="J24">
-        <v>100.4</v>
-      </c>
-      <c r="K24">
-        <v>96.03</v>
-      </c>
-      <c r="L24">
-        <v>95.95</v>
-      </c>
-      <c r="M24">
-        <v>100.06</v>
-      </c>
-      <c r="N24">
-        <v>96.8</v>
-      </c>
-      <c r="O24">
-        <v>97.8</v>
-      </c>
-      <c r="P24">
-        <v>100.56</v>
-      </c>
-      <c r="Q24">
-        <v>99.5</v>
-      </c>
-      <c r="R24">
-        <v>97.75</v>
-      </c>
-      <c r="S24">
-        <v>103.58</v>
-      </c>
-      <c r="T24">
-        <v>97.49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>22.695436999999998</v>
-      </c>
-      <c r="F25">
-        <v>114.978919</v>
-      </c>
-      <c r="G25">
-        <v>3150</v>
-      </c>
-      <c r="H25">
-        <v>94.52</v>
-      </c>
-      <c r="I25">
-        <v>24.11</v>
-      </c>
-      <c r="J25">
-        <v>101.94</v>
-      </c>
-      <c r="K25">
-        <v>42.54</v>
-      </c>
-      <c r="L25">
-        <v>63.5</v>
-      </c>
-      <c r="M25">
-        <v>100.17</v>
-      </c>
-      <c r="N25">
-        <v>96.89</v>
-      </c>
-      <c r="O25">
-        <v>98.01</v>
-      </c>
-      <c r="P25">
-        <v>102.06</v>
-      </c>
-      <c r="Q25">
-        <v>100.52</v>
-      </c>
-      <c r="R25">
-        <v>103.85</v>
-      </c>
-      <c r="S25">
-        <v>104.2</v>
-      </c>
-      <c r="T25">
-        <v>86.52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>22.695436999999998</v>
-      </c>
-      <c r="F26">
-        <v>114.978919</v>
-      </c>
-      <c r="G26">
-        <v>3150</v>
-      </c>
-      <c r="H26">
-        <v>97.86</v>
-      </c>
-      <c r="I26">
-        <v>82.28</v>
-      </c>
-      <c r="J26">
-        <v>100.4</v>
-      </c>
-      <c r="K26">
-        <v>96.03</v>
-      </c>
-      <c r="L26">
-        <v>95.95</v>
-      </c>
-      <c r="M26">
-        <v>100.06</v>
-      </c>
-      <c r="N26">
-        <v>96.8</v>
-      </c>
-      <c r="O26">
-        <v>97.8</v>
-      </c>
-      <c r="P26">
-        <v>100.56</v>
-      </c>
-      <c r="Q26">
-        <v>99.5</v>
-      </c>
-      <c r="R26">
-        <v>97.75</v>
-      </c>
-      <c r="S26">
-        <v>103.58</v>
-      </c>
-      <c r="T26">
-        <v>97.49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>22.695436999999998</v>
-      </c>
-      <c r="F27">
-        <v>114.978919</v>
-      </c>
-      <c r="G27">
-        <v>3150</v>
-      </c>
-      <c r="H27">
-        <v>94.52</v>
-      </c>
-      <c r="I27">
-        <v>24.11</v>
-      </c>
-      <c r="J27">
-        <v>101.94</v>
-      </c>
-      <c r="K27">
-        <v>42.54</v>
-      </c>
-      <c r="L27">
-        <v>63.5</v>
-      </c>
-      <c r="M27">
-        <v>100.17</v>
-      </c>
-      <c r="N27">
-        <v>96.89</v>
-      </c>
-      <c r="O27">
-        <v>98.01</v>
-      </c>
-      <c r="P27">
-        <v>102.06</v>
-      </c>
-      <c r="Q27">
-        <v>100.52</v>
-      </c>
-      <c r="R27">
-        <v>103.85</v>
-      </c>
-      <c r="S27">
-        <v>104.2</v>
-      </c>
-      <c r="T27">
-        <v>86.52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>22.695436999999998</v>
-      </c>
-      <c r="F28">
-        <v>114.978919</v>
-      </c>
-      <c r="G28">
-        <v>3150</v>
-      </c>
-      <c r="H28">
-        <v>97.86</v>
-      </c>
-      <c r="I28">
-        <v>82.28</v>
-      </c>
-      <c r="J28">
-        <v>100.4</v>
-      </c>
-      <c r="K28">
-        <v>96.03</v>
-      </c>
-      <c r="L28">
-        <v>95.95</v>
-      </c>
-      <c r="M28">
-        <v>100.06</v>
-      </c>
-      <c r="N28">
-        <v>96.8</v>
-      </c>
-      <c r="O28">
-        <v>97.8</v>
-      </c>
-      <c r="P28">
-        <v>100.56</v>
-      </c>
-      <c r="Q28">
-        <v>99.5</v>
-      </c>
-      <c r="R28">
-        <v>97.75</v>
-      </c>
-      <c r="S28">
-        <v>103.58</v>
-      </c>
-      <c r="T28">
-        <v>97.49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>22.695436999999998</v>
-      </c>
-      <c r="F29">
-        <v>114.978919</v>
-      </c>
-      <c r="G29">
-        <v>3150</v>
-      </c>
-      <c r="H29">
-        <v>94.52</v>
-      </c>
-      <c r="I29">
-        <v>24.11</v>
-      </c>
-      <c r="J29">
-        <v>101.94</v>
-      </c>
-      <c r="K29">
-        <v>42.54</v>
-      </c>
-      <c r="L29">
-        <v>63.5</v>
-      </c>
-      <c r="M29">
-        <v>100.17</v>
-      </c>
-      <c r="N29">
-        <v>96.89</v>
-      </c>
-      <c r="O29">
-        <v>98.01</v>
-      </c>
-      <c r="P29">
-        <v>102.06</v>
-      </c>
-      <c r="Q29">
-        <v>100.52</v>
-      </c>
-      <c r="R29">
-        <v>103.85</v>
-      </c>
-      <c r="S29">
-        <v>104.2</v>
-      </c>
-      <c r="T29">
-        <v>86.52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868A02F1-4798-4946-BA2E-B197A37877A6}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
